--- a/po_analysis_by_asin/B0BF7FT26Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF7FT26Z_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,577 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>975</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>165</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>405</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>375</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>585</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>270</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>880</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>740</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>390</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45425</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>320</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45432</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45439</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>260</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45453</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2590</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45467</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45537</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>430</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>550</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>1020</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>560</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45572</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>670</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45579</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>2180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45593</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B30" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B73" t="n">
         <v>890</v>
       </c>
     </row>
@@ -693,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,73 +1059,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1920</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>855</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1405</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>980</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1150</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>3020</v>
+        <v>935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>260</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2260</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>4300</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BF7FT26Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF7FT26Z_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1054,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1223,6 +1224,1167 @@
       </c>
       <c r="B22" t="n">
         <v>4300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>121</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-379.7055199950197</v>
+      </c>
+      <c r="D2" t="n">
+        <v>655.257621091397</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>127</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-350.4221492416565</v>
+      </c>
+      <c r="D3" t="n">
+        <v>641.8243460915357</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>140</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-363.7831841310563</v>
+      </c>
+      <c r="D4" t="n">
+        <v>658.8698417500337</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>146</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-347.2662132422518</v>
+      </c>
+      <c r="D5" t="n">
+        <v>728.7554612087218</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>153</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-382.8052668780924</v>
+      </c>
+      <c r="D6" t="n">
+        <v>691.3620597647648</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>159</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-371.4235908806613</v>
+      </c>
+      <c r="D7" t="n">
+        <v>711.6239076986212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>165</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-345.4226383145283</v>
+      </c>
+      <c r="D8" t="n">
+        <v>694.0570257261144</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>172</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-360.7967397878007</v>
+      </c>
+      <c r="D9" t="n">
+        <v>676.5394010057023</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>178</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-373.679024498676</v>
+      </c>
+      <c r="D10" t="n">
+        <v>663.213907322383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>185</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-331.5733541875674</v>
+      </c>
+      <c r="D11" t="n">
+        <v>695.6911817972725</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>191</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-346.8135640706672</v>
+      </c>
+      <c r="D12" t="n">
+        <v>716.4652770562556</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>204</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-329.1762719456173</v>
+      </c>
+      <c r="D13" t="n">
+        <v>718.9431128977265</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>210</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-344.2294330874971</v>
+      </c>
+      <c r="D14" t="n">
+        <v>749.7098841330242</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>217</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-274.4744604484112</v>
+      </c>
+      <c r="D15" t="n">
+        <v>730.5135090851203</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>236</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-272.8246601862285</v>
+      </c>
+      <c r="D16" t="n">
+        <v>722.033479135216</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>242</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-258.5841810463382</v>
+      </c>
+      <c r="D17" t="n">
+        <v>775.7413649879302</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>249</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-240.7544834355683</v>
+      </c>
+      <c r="D18" t="n">
+        <v>729.2892916073264</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>255</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-282.3074994523296</v>
+      </c>
+      <c r="D19" t="n">
+        <v>742.7344719763053</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>261</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-233.94736504047</v>
+      </c>
+      <c r="D20" t="n">
+        <v>800.4580740889675</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>274</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-246.2861979528329</v>
+      </c>
+      <c r="D21" t="n">
+        <v>776.7892727111168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>280</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-238.1443330900238</v>
+      </c>
+      <c r="D22" t="n">
+        <v>814.2893150439952</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>287</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-232.284268190267</v>
+      </c>
+      <c r="D23" t="n">
+        <v>765.8223398160549</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>293</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-207.0975498644625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>799.4463746932246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>300</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-194.2693053249469</v>
+      </c>
+      <c r="D25" t="n">
+        <v>832.1914639882709</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>306</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-190.7774297808317</v>
+      </c>
+      <c r="D26" t="n">
+        <v>786.1540051341814</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>312</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-210.4085848795311</v>
+      </c>
+      <c r="D27" t="n">
+        <v>838.4497669123662</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>319</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-180.657719450781</v>
+      </c>
+      <c r="D28" t="n">
+        <v>864.7556665783927</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>325</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-210.4900795053829</v>
+      </c>
+      <c r="D29" t="n">
+        <v>838.2359662914439</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>332</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-155.4645022219708</v>
+      </c>
+      <c r="D30" t="n">
+        <v>869.9472181343388</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>338</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-145.2997811751423</v>
+      </c>
+      <c r="D31" t="n">
+        <v>851.2513288811197</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>344</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-195.8153416234419</v>
+      </c>
+      <c r="D32" t="n">
+        <v>831.914046515911</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>351</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-168.9922668008755</v>
+      </c>
+      <c r="D33" t="n">
+        <v>856.7531304305359</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>357</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-130.3056093760337</v>
+      </c>
+      <c r="D34" t="n">
+        <v>896.5581617247296</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>364</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-144.4410251047299</v>
+      </c>
+      <c r="D35" t="n">
+        <v>934.1033449516706</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>370</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-144.804089064971</v>
+      </c>
+      <c r="D36" t="n">
+        <v>898.6933437798069</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>376</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-123.7627974712771</v>
+      </c>
+      <c r="D37" t="n">
+        <v>883.9414347705014</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>383</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-140.2544609410534</v>
+      </c>
+      <c r="D38" t="n">
+        <v>856.0460348759937</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>389</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-140.2400036697561</v>
+      </c>
+      <c r="D39" t="n">
+        <v>888.4667860204147</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>396</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-69.44118728930165</v>
+      </c>
+      <c r="D40" t="n">
+        <v>903.3722061048553</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>402</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-132.2098017513901</v>
+      </c>
+      <c r="D41" t="n">
+        <v>909.9618582120121</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>408</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-144.5723298392905</v>
+      </c>
+      <c r="D42" t="n">
+        <v>906.1253112547979</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>415</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-135.1009403275689</v>
+      </c>
+      <c r="D43" t="n">
+        <v>948.6816425673671</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>428</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-97.28659588511357</v>
+      </c>
+      <c r="D44" t="n">
+        <v>955.335156383103</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>453</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-38.20799508065055</v>
+      </c>
+      <c r="D45" t="n">
+        <v>969.7029921416888</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>466</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-35.2621145073201</v>
+      </c>
+      <c r="D46" t="n">
+        <v>987.4563292751451</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>472</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-55.09969291784679</v>
+      </c>
+      <c r="D47" t="n">
+        <v>987.9419820074181</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>479</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-53.81041793355724</v>
+      </c>
+      <c r="D48" t="n">
+        <v>986.7833738351499</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>485</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-36.71616726810342</v>
+      </c>
+      <c r="D49" t="n">
+        <v>987.2063335221197</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>498</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-37.01383507949769</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1023.202651873367</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>511</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26.71813835465261</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1029.879749885634</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>517</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10.80100765458229</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1033.824286604836</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>523</v>
+      </c>
+      <c r="C53" t="n">
+        <v>34.45442787151968</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1025.557269548818</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>530</v>
+      </c>
+      <c r="C54" t="n">
+        <v>16.19743140786628</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1029.297571417621</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>536</v>
+      </c>
+      <c r="C55" t="n">
+        <v>28.23622179852481</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1038.534442042763</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>549</v>
+      </c>
+      <c r="C56" t="n">
+        <v>58.59782074659157</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1016.66450731664</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>555</v>
+      </c>
+      <c r="C57" t="n">
+        <v>22.41080798420475</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1081.225454149257</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>562</v>
+      </c>
+      <c r="C58" t="n">
+        <v>33.30443915644934</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1086.751868579961</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>568</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13.89471159189415</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1052.973231384031</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>575</v>
+      </c>
+      <c r="C60" t="n">
+        <v>48.63678368380817</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1072.778198893454</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>581</v>
+      </c>
+      <c r="C61" t="n">
+        <v>81.62657226949908</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1069.413784206111</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>587</v>
+      </c>
+      <c r="C62" t="n">
+        <v>96.76314321180988</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1095.182518779825</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>600</v>
+      </c>
+      <c r="C63" t="n">
+        <v>89.17829447901036</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1141.603278718213</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>613</v>
+      </c>
+      <c r="C64" t="n">
+        <v>80.78858461021284</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1128.96484368241</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>664</v>
+      </c>
+      <c r="C65" t="n">
+        <v>159.2804217779226</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1172.881452116466</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>677</v>
+      </c>
+      <c r="C66" t="n">
+        <v>139.8559020726672</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1142.650116780687</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>683</v>
+      </c>
+      <c r="C67" t="n">
+        <v>164.2680045350392</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1216.64655617228</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>690</v>
+      </c>
+      <c r="C68" t="n">
+        <v>184.8515275649114</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1185.558549244272</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>696</v>
+      </c>
+      <c r="C69" t="n">
+        <v>157.2310330980428</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1213.374961192546</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>702</v>
+      </c>
+      <c r="C70" t="n">
+        <v>179.132280109335</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1228.239638907166</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>709</v>
+      </c>
+      <c r="C71" t="n">
+        <v>196.1813022936483</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1168.996309873338</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>715</v>
+      </c>
+      <c r="C72" t="n">
+        <v>232.0863609228464</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1241.968293396091</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>728</v>
+      </c>
+      <c r="C73" t="n">
+        <v>202.689658358079</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1228.04651094101</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>734</v>
+      </c>
+      <c r="C74" t="n">
+        <v>205.3499533245499</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1263.072909181906</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>741</v>
+      </c>
+      <c r="C75" t="n">
+        <v>236.2288148015432</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1279.859908913702</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>747</v>
+      </c>
+      <c r="C76" t="n">
+        <v>254.4619341065068</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1255.232213385711</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>754</v>
+      </c>
+      <c r="C77" t="n">
+        <v>232.0059416344455</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1240.499953359372</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>760</v>
+      </c>
+      <c r="C78" t="n">
+        <v>256.9583662765845</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1282.443008226728</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>766</v>
+      </c>
+      <c r="C79" t="n">
+        <v>246.3255962396683</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1322.53040366085</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>773</v>
+      </c>
+      <c r="C80" t="n">
+        <v>259.2508786574508</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1242.117040570454</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>779</v>
+      </c>
+      <c r="C81" t="n">
+        <v>255.285463874972</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1288.033950510305</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BF7FT26Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF7FT26Z_po_data.xlsx
@@ -1237,7 +1237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,16 +1256,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1274,12 +1264,6 @@
       <c r="B2" t="n">
         <v>121</v>
       </c>
-      <c r="C2" t="n">
-        <v>-379.7055199950197</v>
-      </c>
-      <c r="D2" t="n">
-        <v>655.257621091397</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1288,12 +1272,6 @@
       <c r="B3" t="n">
         <v>127</v>
       </c>
-      <c r="C3" t="n">
-        <v>-350.4221492416565</v>
-      </c>
-      <c r="D3" t="n">
-        <v>641.8243460915357</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1302,12 +1280,6 @@
       <c r="B4" t="n">
         <v>140</v>
       </c>
-      <c r="C4" t="n">
-        <v>-363.7831841310563</v>
-      </c>
-      <c r="D4" t="n">
-        <v>658.8698417500337</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1316,12 +1288,6 @@
       <c r="B5" t="n">
         <v>146</v>
       </c>
-      <c r="C5" t="n">
-        <v>-347.2662132422518</v>
-      </c>
-      <c r="D5" t="n">
-        <v>728.7554612087218</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1330,12 +1296,6 @@
       <c r="B6" t="n">
         <v>153</v>
       </c>
-      <c r="C6" t="n">
-        <v>-382.8052668780924</v>
-      </c>
-      <c r="D6" t="n">
-        <v>691.3620597647648</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1344,12 +1304,6 @@
       <c r="B7" t="n">
         <v>159</v>
       </c>
-      <c r="C7" t="n">
-        <v>-371.4235908806613</v>
-      </c>
-      <c r="D7" t="n">
-        <v>711.6239076986212</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1358,12 +1312,6 @@
       <c r="B8" t="n">
         <v>165</v>
       </c>
-      <c r="C8" t="n">
-        <v>-345.4226383145283</v>
-      </c>
-      <c r="D8" t="n">
-        <v>694.0570257261144</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1372,12 +1320,6 @@
       <c r="B9" t="n">
         <v>172</v>
       </c>
-      <c r="C9" t="n">
-        <v>-360.7967397878007</v>
-      </c>
-      <c r="D9" t="n">
-        <v>676.5394010057023</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1386,12 +1328,6 @@
       <c r="B10" t="n">
         <v>178</v>
       </c>
-      <c r="C10" t="n">
-        <v>-373.679024498676</v>
-      </c>
-      <c r="D10" t="n">
-        <v>663.213907322383</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1400,12 +1336,6 @@
       <c r="B11" t="n">
         <v>185</v>
       </c>
-      <c r="C11" t="n">
-        <v>-331.5733541875674</v>
-      </c>
-      <c r="D11" t="n">
-        <v>695.6911817972725</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1414,12 +1344,6 @@
       <c r="B12" t="n">
         <v>191</v>
       </c>
-      <c r="C12" t="n">
-        <v>-346.8135640706672</v>
-      </c>
-      <c r="D12" t="n">
-        <v>716.4652770562556</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1428,12 +1352,6 @@
       <c r="B13" t="n">
         <v>204</v>
       </c>
-      <c r="C13" t="n">
-        <v>-329.1762719456173</v>
-      </c>
-      <c r="D13" t="n">
-        <v>718.9431128977265</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1442,12 +1360,6 @@
       <c r="B14" t="n">
         <v>210</v>
       </c>
-      <c r="C14" t="n">
-        <v>-344.2294330874971</v>
-      </c>
-      <c r="D14" t="n">
-        <v>749.7098841330242</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1456,12 +1368,6 @@
       <c r="B15" t="n">
         <v>217</v>
       </c>
-      <c r="C15" t="n">
-        <v>-274.4744604484112</v>
-      </c>
-      <c r="D15" t="n">
-        <v>730.5135090851203</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1470,12 +1376,6 @@
       <c r="B16" t="n">
         <v>236</v>
       </c>
-      <c r="C16" t="n">
-        <v>-272.8246601862285</v>
-      </c>
-      <c r="D16" t="n">
-        <v>722.033479135216</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1484,12 +1384,6 @@
       <c r="B17" t="n">
         <v>242</v>
       </c>
-      <c r="C17" t="n">
-        <v>-258.5841810463382</v>
-      </c>
-      <c r="D17" t="n">
-        <v>775.7413649879302</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1498,12 +1392,6 @@
       <c r="B18" t="n">
         <v>249</v>
       </c>
-      <c r="C18" t="n">
-        <v>-240.7544834355683</v>
-      </c>
-      <c r="D18" t="n">
-        <v>729.2892916073264</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1512,12 +1400,6 @@
       <c r="B19" t="n">
         <v>255</v>
       </c>
-      <c r="C19" t="n">
-        <v>-282.3074994523296</v>
-      </c>
-      <c r="D19" t="n">
-        <v>742.7344719763053</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1526,12 +1408,6 @@
       <c r="B20" t="n">
         <v>261</v>
       </c>
-      <c r="C20" t="n">
-        <v>-233.94736504047</v>
-      </c>
-      <c r="D20" t="n">
-        <v>800.4580740889675</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1540,12 +1416,6 @@
       <c r="B21" t="n">
         <v>274</v>
       </c>
-      <c r="C21" t="n">
-        <v>-246.2861979528329</v>
-      </c>
-      <c r="D21" t="n">
-        <v>776.7892727111168</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1554,12 +1424,6 @@
       <c r="B22" t="n">
         <v>280</v>
       </c>
-      <c r="C22" t="n">
-        <v>-238.1443330900238</v>
-      </c>
-      <c r="D22" t="n">
-        <v>814.2893150439952</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1568,12 +1432,6 @@
       <c r="B23" t="n">
         <v>287</v>
       </c>
-      <c r="C23" t="n">
-        <v>-232.284268190267</v>
-      </c>
-      <c r="D23" t="n">
-        <v>765.8223398160549</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1582,12 +1440,6 @@
       <c r="B24" t="n">
         <v>293</v>
       </c>
-      <c r="C24" t="n">
-        <v>-207.0975498644625</v>
-      </c>
-      <c r="D24" t="n">
-        <v>799.4463746932246</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1596,12 +1448,6 @@
       <c r="B25" t="n">
         <v>300</v>
       </c>
-      <c r="C25" t="n">
-        <v>-194.2693053249469</v>
-      </c>
-      <c r="D25" t="n">
-        <v>832.1914639882709</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1610,12 +1456,6 @@
       <c r="B26" t="n">
         <v>306</v>
       </c>
-      <c r="C26" t="n">
-        <v>-190.7774297808317</v>
-      </c>
-      <c r="D26" t="n">
-        <v>786.1540051341814</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1624,12 +1464,6 @@
       <c r="B27" t="n">
         <v>312</v>
       </c>
-      <c r="C27" t="n">
-        <v>-210.4085848795311</v>
-      </c>
-      <c r="D27" t="n">
-        <v>838.4497669123662</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1638,12 +1472,6 @@
       <c r="B28" t="n">
         <v>319</v>
       </c>
-      <c r="C28" t="n">
-        <v>-180.657719450781</v>
-      </c>
-      <c r="D28" t="n">
-        <v>864.7556665783927</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1652,12 +1480,6 @@
       <c r="B29" t="n">
         <v>325</v>
       </c>
-      <c r="C29" t="n">
-        <v>-210.4900795053829</v>
-      </c>
-      <c r="D29" t="n">
-        <v>838.2359662914439</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1666,12 +1488,6 @@
       <c r="B30" t="n">
         <v>332</v>
       </c>
-      <c r="C30" t="n">
-        <v>-155.4645022219708</v>
-      </c>
-      <c r="D30" t="n">
-        <v>869.9472181343388</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1680,12 +1496,6 @@
       <c r="B31" t="n">
         <v>338</v>
       </c>
-      <c r="C31" t="n">
-        <v>-145.2997811751423</v>
-      </c>
-      <c r="D31" t="n">
-        <v>851.2513288811197</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1694,12 +1504,6 @@
       <c r="B32" t="n">
         <v>344</v>
       </c>
-      <c r="C32" t="n">
-        <v>-195.8153416234419</v>
-      </c>
-      <c r="D32" t="n">
-        <v>831.914046515911</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1708,12 +1512,6 @@
       <c r="B33" t="n">
         <v>351</v>
       </c>
-      <c r="C33" t="n">
-        <v>-168.9922668008755</v>
-      </c>
-      <c r="D33" t="n">
-        <v>856.7531304305359</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1722,12 +1520,6 @@
       <c r="B34" t="n">
         <v>357</v>
       </c>
-      <c r="C34" t="n">
-        <v>-130.3056093760337</v>
-      </c>
-      <c r="D34" t="n">
-        <v>896.5581617247296</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1736,12 +1528,6 @@
       <c r="B35" t="n">
         <v>364</v>
       </c>
-      <c r="C35" t="n">
-        <v>-144.4410251047299</v>
-      </c>
-      <c r="D35" t="n">
-        <v>934.1033449516706</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1750,12 +1536,6 @@
       <c r="B36" t="n">
         <v>370</v>
       </c>
-      <c r="C36" t="n">
-        <v>-144.804089064971</v>
-      </c>
-      <c r="D36" t="n">
-        <v>898.6933437798069</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1764,12 +1544,6 @@
       <c r="B37" t="n">
         <v>376</v>
       </c>
-      <c r="C37" t="n">
-        <v>-123.7627974712771</v>
-      </c>
-      <c r="D37" t="n">
-        <v>883.9414347705014</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1778,12 +1552,6 @@
       <c r="B38" t="n">
         <v>383</v>
       </c>
-      <c r="C38" t="n">
-        <v>-140.2544609410534</v>
-      </c>
-      <c r="D38" t="n">
-        <v>856.0460348759937</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1792,12 +1560,6 @@
       <c r="B39" t="n">
         <v>389</v>
       </c>
-      <c r="C39" t="n">
-        <v>-140.2400036697561</v>
-      </c>
-      <c r="D39" t="n">
-        <v>888.4667860204147</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1806,12 +1568,6 @@
       <c r="B40" t="n">
         <v>396</v>
       </c>
-      <c r="C40" t="n">
-        <v>-69.44118728930165</v>
-      </c>
-      <c r="D40" t="n">
-        <v>903.3722061048553</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1820,12 +1576,6 @@
       <c r="B41" t="n">
         <v>402</v>
       </c>
-      <c r="C41" t="n">
-        <v>-132.2098017513901</v>
-      </c>
-      <c r="D41" t="n">
-        <v>909.9618582120121</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1834,12 +1584,6 @@
       <c r="B42" t="n">
         <v>408</v>
       </c>
-      <c r="C42" t="n">
-        <v>-144.5723298392905</v>
-      </c>
-      <c r="D42" t="n">
-        <v>906.1253112547979</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1848,12 +1592,6 @@
       <c r="B43" t="n">
         <v>415</v>
       </c>
-      <c r="C43" t="n">
-        <v>-135.1009403275689</v>
-      </c>
-      <c r="D43" t="n">
-        <v>948.6816425673671</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1862,12 +1600,6 @@
       <c r="B44" t="n">
         <v>428</v>
       </c>
-      <c r="C44" t="n">
-        <v>-97.28659588511357</v>
-      </c>
-      <c r="D44" t="n">
-        <v>955.335156383103</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1876,12 +1608,6 @@
       <c r="B45" t="n">
         <v>453</v>
       </c>
-      <c r="C45" t="n">
-        <v>-38.20799508065055</v>
-      </c>
-      <c r="D45" t="n">
-        <v>969.7029921416888</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1890,12 +1616,6 @@
       <c r="B46" t="n">
         <v>466</v>
       </c>
-      <c r="C46" t="n">
-        <v>-35.2621145073201</v>
-      </c>
-      <c r="D46" t="n">
-        <v>987.4563292751451</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1904,12 +1624,6 @@
       <c r="B47" t="n">
         <v>472</v>
       </c>
-      <c r="C47" t="n">
-        <v>-55.09969291784679</v>
-      </c>
-      <c r="D47" t="n">
-        <v>987.9419820074181</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1918,12 +1632,6 @@
       <c r="B48" t="n">
         <v>479</v>
       </c>
-      <c r="C48" t="n">
-        <v>-53.81041793355724</v>
-      </c>
-      <c r="D48" t="n">
-        <v>986.7833738351499</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1932,12 +1640,6 @@
       <c r="B49" t="n">
         <v>485</v>
       </c>
-      <c r="C49" t="n">
-        <v>-36.71616726810342</v>
-      </c>
-      <c r="D49" t="n">
-        <v>987.2063335221197</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1946,12 +1648,6 @@
       <c r="B50" t="n">
         <v>498</v>
       </c>
-      <c r="C50" t="n">
-        <v>-37.01383507949769</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1023.202651873367</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1960,12 +1656,6 @@
       <c r="B51" t="n">
         <v>511</v>
       </c>
-      <c r="C51" t="n">
-        <v>26.71813835465261</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1029.879749885634</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1974,12 +1664,6 @@
       <c r="B52" t="n">
         <v>517</v>
       </c>
-      <c r="C52" t="n">
-        <v>10.80100765458229</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1033.824286604836</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1988,12 +1672,6 @@
       <c r="B53" t="n">
         <v>523</v>
       </c>
-      <c r="C53" t="n">
-        <v>34.45442787151968</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1025.557269548818</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2002,12 +1680,6 @@
       <c r="B54" t="n">
         <v>530</v>
       </c>
-      <c r="C54" t="n">
-        <v>16.19743140786628</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1029.297571417621</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2016,12 +1688,6 @@
       <c r="B55" t="n">
         <v>536</v>
       </c>
-      <c r="C55" t="n">
-        <v>28.23622179852481</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1038.534442042763</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2030,12 +1696,6 @@
       <c r="B56" t="n">
         <v>549</v>
       </c>
-      <c r="C56" t="n">
-        <v>58.59782074659157</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1016.66450731664</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2044,12 +1704,6 @@
       <c r="B57" t="n">
         <v>555</v>
       </c>
-      <c r="C57" t="n">
-        <v>22.41080798420475</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1081.225454149257</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2058,12 +1712,6 @@
       <c r="B58" t="n">
         <v>562</v>
       </c>
-      <c r="C58" t="n">
-        <v>33.30443915644934</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1086.751868579961</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2072,12 +1720,6 @@
       <c r="B59" t="n">
         <v>568</v>
       </c>
-      <c r="C59" t="n">
-        <v>13.89471159189415</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1052.973231384031</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2086,12 +1728,6 @@
       <c r="B60" t="n">
         <v>575</v>
       </c>
-      <c r="C60" t="n">
-        <v>48.63678368380817</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1072.778198893454</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2100,12 +1736,6 @@
       <c r="B61" t="n">
         <v>581</v>
       </c>
-      <c r="C61" t="n">
-        <v>81.62657226949908</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1069.413784206111</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2114,12 +1744,6 @@
       <c r="B62" t="n">
         <v>587</v>
       </c>
-      <c r="C62" t="n">
-        <v>96.76314321180988</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1095.182518779825</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2128,12 +1752,6 @@
       <c r="B63" t="n">
         <v>600</v>
       </c>
-      <c r="C63" t="n">
-        <v>89.17829447901036</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1141.603278718213</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2142,12 +1760,6 @@
       <c r="B64" t="n">
         <v>613</v>
       </c>
-      <c r="C64" t="n">
-        <v>80.78858461021284</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1128.96484368241</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2156,12 +1768,6 @@
       <c r="B65" t="n">
         <v>664</v>
       </c>
-      <c r="C65" t="n">
-        <v>159.2804217779226</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1172.881452116466</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2170,12 +1776,6 @@
       <c r="B66" t="n">
         <v>677</v>
       </c>
-      <c r="C66" t="n">
-        <v>139.8559020726672</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1142.650116780687</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2184,12 +1784,6 @@
       <c r="B67" t="n">
         <v>683</v>
       </c>
-      <c r="C67" t="n">
-        <v>164.2680045350392</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1216.64655617228</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2198,12 +1792,6 @@
       <c r="B68" t="n">
         <v>690</v>
       </c>
-      <c r="C68" t="n">
-        <v>184.8515275649114</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1185.558549244272</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2212,12 +1800,6 @@
       <c r="B69" t="n">
         <v>696</v>
       </c>
-      <c r="C69" t="n">
-        <v>157.2310330980428</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1213.374961192546</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2226,12 +1808,6 @@
       <c r="B70" t="n">
         <v>702</v>
       </c>
-      <c r="C70" t="n">
-        <v>179.132280109335</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1228.239638907166</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2240,12 +1816,6 @@
       <c r="B71" t="n">
         <v>709</v>
       </c>
-      <c r="C71" t="n">
-        <v>196.1813022936483</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1168.996309873338</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2254,12 +1824,6 @@
       <c r="B72" t="n">
         <v>715</v>
       </c>
-      <c r="C72" t="n">
-        <v>232.0863609228464</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1241.968293396091</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2268,12 +1832,6 @@
       <c r="B73" t="n">
         <v>728</v>
       </c>
-      <c r="C73" t="n">
-        <v>202.689658358079</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1228.04651094101</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2282,12 +1840,6 @@
       <c r="B74" t="n">
         <v>734</v>
       </c>
-      <c r="C74" t="n">
-        <v>205.3499533245499</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1263.072909181906</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2296,12 +1848,6 @@
       <c r="B75" t="n">
         <v>741</v>
       </c>
-      <c r="C75" t="n">
-        <v>236.2288148015432</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1279.859908913702</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2310,12 +1856,6 @@
       <c r="B76" t="n">
         <v>747</v>
       </c>
-      <c r="C76" t="n">
-        <v>254.4619341065068</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1255.232213385711</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2324,12 +1864,6 @@
       <c r="B77" t="n">
         <v>754</v>
       </c>
-      <c r="C77" t="n">
-        <v>232.0059416344455</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1240.499953359372</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2338,12 +1872,6 @@
       <c r="B78" t="n">
         <v>760</v>
       </c>
-      <c r="C78" t="n">
-        <v>256.9583662765845</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1282.443008226728</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2352,12 +1880,6 @@
       <c r="B79" t="n">
         <v>766</v>
       </c>
-      <c r="C79" t="n">
-        <v>246.3255962396683</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1322.53040366085</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2366,12 +1888,6 @@
       <c r="B80" t="n">
         <v>773</v>
       </c>
-      <c r="C80" t="n">
-        <v>259.2508786574508</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1242.117040570454</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2379,12 +1895,6 @@
       </c>
       <c r="B81" t="n">
         <v>779</v>
-      </c>
-      <c r="C81" t="n">
-        <v>255.285463874972</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1288.033950510305</v>
       </c>
     </row>
   </sheetData>
